--- a/data/datacall_template/00template/Eel_Data_Call_2022_Annex6_Landings_Other.xlsx
+++ b/data/datacall_template/00template/Eel_Data_Call_2022_Annex6_Landings_Other.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="-16320" windowWidth="24360" windowHeight="14370" tabRatio="702" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="-16320" windowWidth="24330" windowHeight="14370" tabRatio="702"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="17" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="data">#REF!</definedName>
     <definedName name="metadata">metadata!$B$6:$C$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Lifetime mortality hydro and pumps</t>
-  </si>
-  <si>
-    <t>year</t>
   </si>
   <si>
     <t>Code of emu see tr_emu_emu</t>
@@ -2448,6 +2445,9 @@
   </si>
   <si>
     <t>Comment to justify the eel_qal_id if eel_qal_id is different from 1</t>
+  </si>
+  <si>
+    <t>Year (For glass eel, months from september y-1 to august y should be denoted year y / For silver eel, months from june y to may y+1 should be denoted year y / For yellow eels, use the calendar year)</t>
   </si>
 </sst>
 </file>
@@ -3389,10 +3389,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3482,7 +3482,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{025F268F-1EAE-4E46-B2BE-32ED283D99B9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{025F268F-1EAE-4E46-B2BE-32ED283D99B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3652,7 +3652,7 @@
         <xdr:cNvPr id="3" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75EE17DD-5027-4E85-A2E6-DF84A29DA2EB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EE17DD-5027-4E85-A2E6-DF84A29DA2EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3749,7 +3749,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34CE0888-1830-4E34-9AF4-0A9F41197A05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34CE0888-1830-4E34-9AF4-0A9F41197A05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3993,7 +3993,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CF0F56-F27D-4E24-B60A-BFBBC99AB87E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2CF0F56-F27D-4E24-B60A-BFBBC99AB87E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4051,7 +4051,7 @@
         <xdr:cNvPr id="4" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66F83CAD-7AE8-4C38-A97C-686584DEAD4D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F83CAD-7AE8-4C38-A97C-686584DEAD4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4362,7 +4362,7 @@
         <xdr:cNvPr id="5" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CF0F56-F27D-4E24-B60A-BFBBC99AB87E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2CF0F56-F27D-4E24-B60A-BFBBC99AB87E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4420,7 +4420,7 @@
         <xdr:cNvPr id="4" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28CDB661-9B32-43CE-B346-97DF60274CE6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CDB661-9B32-43CE-B346-97DF60274CE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4639,7 +4639,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8481360-D7B7-4684-B72D-838E88CC6EF7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8481360-D7B7-4684-B72D-838E88CC6EF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4688,7 +4688,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29B3FA15-3307-4783-93AE-183B3DC0E3AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B3FA15-3307-4783-93AE-183B3DC0E3AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4737,7 +4737,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0793C198-A7A3-433E-885E-E3BA56828DA4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0793C198-A7A3-433E-885E-E3BA56828DA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5095,7 +5095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5108,8 +5108,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5119,25 +5119,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>604</v>
-      </c>
-      <c r="B1" s="41"/>
+      <c r="A1" s="42" t="s">
+        <v>603</v>
+      </c>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
@@ -5145,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
@@ -5153,15 +5153,15 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
@@ -5169,7 +5169,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
@@ -5177,7 +5177,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
@@ -5185,7 +5185,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
@@ -5193,7 +5193,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
@@ -5201,23 +5201,23 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>605</v>
+        <v>593</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
@@ -5225,7 +5225,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -5252,577 +5252,577 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>223</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>224</v>
       </c>
       <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" s="16">
         <v>27</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="16">
         <v>3</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C4" s="16">
         <v>25</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="16">
         <v>14</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" s="16">
         <v>35</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" s="16">
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" s="16">
         <v>11</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="16">
         <v>12</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" s="16">
         <v>42</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" s="16">
         <v>5</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" s="16">
         <v>39</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="16">
         <v>19</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C14" s="16">
         <v>4</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="16">
         <v>18</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C16" s="16">
         <v>17</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C17" s="16">
         <v>28</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C18" s="16">
         <v>24</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C19" s="16">
         <v>16</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" s="16">
         <v>38</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C21" s="16">
         <v>0</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C22" s="16">
         <v>21</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C23" s="16">
         <v>37</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C24" s="16">
         <v>7</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C25" s="16">
         <v>15</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C26" s="16">
         <v>6</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C27" s="16">
         <v>40</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C28" s="16">
         <v>43</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C29" s="16">
         <v>26</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C30" s="16">
         <v>22</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C31" s="16">
         <v>13</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" s="16">
         <v>1</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C33" s="16">
         <v>9</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C34" s="16">
         <v>20</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C35" s="16">
         <v>8</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C36" s="16">
         <v>2</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="16">
         <v>23</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C38" s="16">
         <v>36</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C39" s="16">
         <v>41</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C40" s="16">
         <v>34</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C41" s="16">
         <v>46</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5851,68 +5851,68 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="86.45" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -5932,43 +5932,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -5993,31 +5993,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -6025,16 +6025,16 @@
         <v>227</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D2" s="16">
         <v>1</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F2" s="16">
         <v>2</v>
@@ -6046,7 +6046,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -6054,16 +6054,16 @@
         <v>230</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D3" s="16">
         <v>1</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F3" s="16">
         <v>2</v>
@@ -6075,10 +6075,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -6086,16 +6086,16 @@
         <v>228</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D4" s="16">
         <v>1</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F4" s="16">
         <v>2</v>
@@ -6107,13 +6107,13 @@
         <v>21.1</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K4" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>562</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -6121,16 +6121,16 @@
         <v>229</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D5" s="16">
         <v>1</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="16">
         <v>2</v>
@@ -6142,13 +6142,13 @@
         <v>21.1</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K5" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="L5" s="18" t="s">
         <v>564</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -6156,16 +6156,16 @@
         <v>231</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D6" s="16">
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F6" s="16">
         <v>2</v>
@@ -6177,7 +6177,7 @@
         <v>21.1</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -6185,16 +6185,16 @@
         <v>195</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D7" s="16">
         <v>1</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F7" s="16">
         <v>2</v>
@@ -6206,10 +6206,10 @@
         <v>21.1</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -6217,16 +6217,16 @@
         <v>196</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D8" s="16">
         <v>1</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F8" s="16">
         <v>2</v>
@@ -6238,10 +6238,10 @@
         <v>21.1</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -6249,16 +6249,16 @@
         <v>198</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D9" s="16">
         <v>1</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F9" s="16">
         <v>2</v>
@@ -6270,7 +6270,7 @@
         <v>21.1</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -6278,16 +6278,16 @@
         <v>197</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D10" s="16">
         <v>1</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F10" s="16">
         <v>2</v>
@@ -6299,7 +6299,7 @@
         <v>21.2</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -6307,16 +6307,16 @@
         <v>199</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D11" s="16">
         <v>1</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F11" s="16">
         <v>2</v>
@@ -6328,7 +6328,7 @@
         <v>21.2</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -6336,16 +6336,16 @@
         <v>235</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D12" s="16">
         <v>1</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F12" s="16">
         <v>2</v>
@@ -6357,7 +6357,7 @@
         <v>21.2</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -6365,16 +6365,16 @@
         <v>234</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D13" s="16">
         <v>1</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F13" s="16">
         <v>2</v>
@@ -6386,7 +6386,7 @@
         <v>21.3</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -6394,16 +6394,16 @@
         <v>239</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D14" s="16">
         <v>1</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F14" s="16">
         <v>2</v>
@@ -6415,7 +6415,7 @@
         <v>21.3</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -6423,16 +6423,16 @@
         <v>200</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D15" s="16">
         <v>1</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F15" s="16">
         <v>2</v>
@@ -6444,7 +6444,7 @@
         <v>21.3</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -6452,16 +6452,16 @@
         <v>218</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F16" s="16">
         <v>2</v>
@@ -6473,7 +6473,7 @@
         <v>21.3</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6481,16 +6481,16 @@
         <v>201</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F17" s="16">
         <v>2</v>
@@ -6502,7 +6502,7 @@
         <v>21.3</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6510,16 +6510,16 @@
         <v>240</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D18" s="16">
         <v>1</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F18" s="16">
         <v>2</v>
@@ -6531,7 +6531,7 @@
         <v>21.3</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6539,16 +6539,16 @@
         <v>238</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D19" s="16">
         <v>1</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F19" s="16">
         <v>2</v>
@@ -6560,7 +6560,7 @@
         <v>21.4</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6568,16 +6568,16 @@
         <v>233</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D20" s="16">
         <v>1</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F20" s="16">
         <v>2</v>
@@ -6589,7 +6589,7 @@
         <v>21.4</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6597,16 +6597,16 @@
         <v>243</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D21" s="16">
         <v>1</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F21" s="16">
         <v>2</v>
@@ -6618,7 +6618,7 @@
         <v>21.4</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6626,16 +6626,16 @@
         <v>219</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D22" s="16">
         <v>1</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F22" s="16">
         <v>2</v>
@@ -6647,7 +6647,7 @@
         <v>21.4</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6655,16 +6655,16 @@
         <v>232</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D23" s="16">
         <v>1</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F23" s="16">
         <v>2</v>
@@ -6676,7 +6676,7 @@
         <v>21.4</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6684,16 +6684,16 @@
         <v>241</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D24" s="16">
         <v>1</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F24" s="16">
         <v>2</v>
@@ -6705,7 +6705,7 @@
         <v>21.4</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6713,16 +6713,16 @@
         <v>242</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D25" s="16">
         <v>1</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F25" s="16">
         <v>2</v>
@@ -6734,7 +6734,7 @@
         <v>21.5</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6742,16 +6742,16 @@
         <v>220</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D26" s="16">
         <v>1</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F26" s="16">
         <v>2</v>
@@ -6763,7 +6763,7 @@
         <v>21.5</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6771,16 +6771,16 @@
         <v>236</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D27" s="16">
         <v>1</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F27" s="16">
         <v>2</v>
@@ -6792,7 +6792,7 @@
         <v>21.6</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6800,16 +6800,16 @@
         <v>221</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D28" s="16">
         <v>1</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F28" s="16">
         <v>2</v>
@@ -6821,7 +6821,7 @@
         <v>21.6</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6829,16 +6829,16 @@
         <v>237</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D29" s="16">
         <v>1</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F29" s="16">
         <v>2</v>
@@ -6850,7 +6850,7 @@
         <v>21.6</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6858,16 +6858,16 @@
         <v>222</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D30" s="16">
         <v>1</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F30" s="16">
         <v>2</v>
@@ -6879,7 +6879,7 @@
         <v>21.6</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6887,16 +6887,16 @@
         <v>223</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D31" s="16">
         <v>1</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F31" s="16">
         <v>2</v>
@@ -6908,7 +6908,7 @@
         <v>21.6</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6916,16 +6916,16 @@
         <v>224</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D32" s="16">
         <v>1</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F32" s="16">
         <v>2</v>
@@ -6937,7 +6937,7 @@
         <v>21.6</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6945,16 +6945,16 @@
         <v>225</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D33" s="16">
         <v>1</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F33" s="16">
         <v>2</v>
@@ -6966,7 +6966,7 @@
         <v>21.6</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -6974,16 +6974,16 @@
         <v>226</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D34" s="16">
         <v>1</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F34" s="16">
         <v>2</v>
@@ -6995,7 +6995,7 @@
         <v>21.6</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7003,16 +7003,16 @@
         <v>267</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D35" s="16">
         <v>1</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F35" s="16">
         <v>2</v>
@@ -7024,7 +7024,7 @@
         <v>27.1</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7032,16 +7032,16 @@
         <v>275</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D36" s="16">
         <v>1</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F36" s="16">
         <v>2</v>
@@ -7053,7 +7053,7 @@
         <v>27.1</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7061,16 +7061,16 @@
         <v>171</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D37" s="16">
         <v>1</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F37" s="16">
         <v>2</v>
@@ -7082,7 +7082,7 @@
         <v>27.1</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7090,16 +7090,16 @@
         <v>215</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D38" s="16">
         <v>1</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F38" s="16">
         <v>2</v>
@@ -7111,7 +7111,7 @@
         <v>27.1</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7119,16 +7119,16 @@
         <v>262</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D39" s="16">
         <v>1</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F39" s="16">
         <v>2</v>
@@ -7140,7 +7140,7 @@
         <v>27.12</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7148,16 +7148,16 @@
         <v>116</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D40" s="16">
         <v>1</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F40" s="16">
         <v>2</v>
@@ -7169,7 +7169,7 @@
         <v>27.12</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7177,16 +7177,16 @@
         <v>253</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D41" s="16">
         <v>1</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F41" s="16">
         <v>2</v>
@@ -7198,7 +7198,7 @@
         <v>27.12</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7206,16 +7206,16 @@
         <v>268</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D42" s="16">
         <v>1</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F42" s="16">
         <v>2</v>
@@ -7227,7 +7227,7 @@
         <v>27.14</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7235,16 +7235,16 @@
         <v>264</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D43" s="16">
         <v>1</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F43" s="16">
         <v>2</v>
@@ -7256,7 +7256,7 @@
         <v>27.14</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7264,16 +7264,16 @@
         <v>265</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D44" s="16">
         <v>1</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F44" s="16">
         <v>2</v>
@@ -7285,7 +7285,7 @@
         <v>27.2</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7293,16 +7293,16 @@
         <v>266</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D45" s="16">
         <v>1</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F45" s="16">
         <v>2</v>
@@ -7314,7 +7314,7 @@
         <v>27.2</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7322,16 +7322,16 @@
         <v>277</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D46" s="16">
         <v>1</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F46" s="16">
         <v>2</v>
@@ -7343,7 +7343,7 @@
         <v>27.3</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7351,16 +7351,16 @@
         <v>258</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D47" s="16">
         <v>1</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F47" s="16">
         <v>2</v>
@@ -7372,7 +7372,7 @@
         <v>27.3</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7380,16 +7380,16 @@
         <v>257</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D48" s="16">
         <v>1</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F48" s="16">
         <v>2</v>
@@ -7401,7 +7401,7 @@
         <v>27.3</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7409,16 +7409,16 @@
         <v>274</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D49" s="16">
         <v>1</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F49" s="16">
         <v>2</v>
@@ -7430,7 +7430,7 @@
         <v>27.4</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7438,16 +7438,16 @@
         <v>259</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D50" s="16">
         <v>1</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F50" s="16">
         <v>2</v>
@@ -7459,7 +7459,7 @@
         <v>27.4</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7467,16 +7467,16 @@
         <v>255</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D51" s="16">
         <v>1</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F51" s="16">
         <v>2</v>
@@ -7488,7 +7488,7 @@
         <v>27.4</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7496,16 +7496,16 @@
         <v>263</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D52" s="16">
         <v>1</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F52" s="16">
         <v>2</v>
@@ -7517,7 +7517,7 @@
         <v>27.5</v>
       </c>
       <c r="I52" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7525,16 +7525,16 @@
         <v>261</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D53" s="16">
         <v>1</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F53" s="16">
         <v>2</v>
@@ -7546,7 +7546,7 @@
         <v>27.5</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7554,16 +7554,16 @@
         <v>271</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D54" s="16">
         <v>1</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F54" s="16">
         <v>2</v>
@@ -7575,7 +7575,7 @@
         <v>27.6</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7583,16 +7583,16 @@
         <v>260</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D55" s="16">
         <v>1</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F55" s="16">
         <v>2</v>
@@ -7604,7 +7604,7 @@
         <v>27.6</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7612,16 +7612,16 @@
         <v>273</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D56" s="16">
         <v>1</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F56" s="16">
         <v>2</v>
@@ -7633,7 +7633,7 @@
         <v>27.7</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7641,16 +7641,16 @@
         <v>272</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D57" s="16">
         <v>1</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F57" s="16">
         <v>2</v>
@@ -7662,7 +7662,7 @@
         <v>27.7</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7670,16 +7670,16 @@
         <v>256</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D58" s="16">
         <v>1</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F58" s="16">
         <v>2</v>
@@ -7691,7 +7691,7 @@
         <v>27.7</v>
       </c>
       <c r="I58" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7699,16 +7699,16 @@
         <v>270</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D59" s="16">
         <v>1</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F59" s="16">
         <v>2</v>
@@ -7720,7 +7720,7 @@
         <v>27.7</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7728,16 +7728,16 @@
         <v>269</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D60" s="16">
         <v>1</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F60" s="16">
         <v>2</v>
@@ -7749,7 +7749,7 @@
         <v>27.7</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7757,16 +7757,16 @@
         <v>251</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D61" s="16">
         <v>1</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F61" s="16">
         <v>2</v>
@@ -7778,7 +7778,7 @@
         <v>27.7</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7786,16 +7786,16 @@
         <v>252</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D62" s="16">
         <v>1</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F62" s="16">
         <v>2</v>
@@ -7807,7 +7807,7 @@
         <v>27.7</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7815,16 +7815,16 @@
         <v>250</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D63" s="16">
         <v>1</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F63" s="16">
         <v>2</v>
@@ -7836,7 +7836,7 @@
         <v>27.7</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7844,16 +7844,16 @@
         <v>249</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D64" s="16">
         <v>1</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F64" s="16">
         <v>2</v>
@@ -7865,7 +7865,7 @@
         <v>27.7</v>
       </c>
       <c r="I64" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7873,16 +7873,16 @@
         <v>254</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D65" s="16">
         <v>1</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F65" s="16">
         <v>2</v>
@@ -7894,7 +7894,7 @@
         <v>27.7</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7902,16 +7902,16 @@
         <v>248</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D66" s="16">
         <v>1</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F66" s="16">
         <v>2</v>
@@ -7923,7 +7923,7 @@
         <v>27.8</v>
       </c>
       <c r="I66" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7931,16 +7931,16 @@
         <v>214</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D67" s="16">
         <v>1</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F67" s="16">
         <v>2</v>
@@ -7952,7 +7952,7 @@
         <v>27.8</v>
       </c>
       <c r="I67" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7960,16 +7960,16 @@
         <v>213</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D68" s="16">
         <v>1</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F68" s="16">
         <v>2</v>
@@ -7981,7 +7981,7 @@
         <v>27.8</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -7989,16 +7989,16 @@
         <v>217</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D69" s="16">
         <v>1</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F69" s="16">
         <v>2</v>
@@ -8010,7 +8010,7 @@
         <v>27.8</v>
       </c>
       <c r="I69" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8018,16 +8018,16 @@
         <v>216</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D70" s="16">
         <v>1</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F70" s="16">
         <v>2</v>
@@ -8039,7 +8039,7 @@
         <v>27.8</v>
       </c>
       <c r="I70" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8047,16 +8047,16 @@
         <v>212</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D71" s="16">
         <v>1</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F71" s="16">
         <v>2</v>
@@ -8068,7 +8068,7 @@
         <v>27.9</v>
       </c>
       <c r="I71" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8076,16 +8076,16 @@
         <v>172</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D72" s="16">
         <v>1</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F72" s="16">
         <v>2</v>
@@ -8097,7 +8097,7 @@
         <v>27.9</v>
       </c>
       <c r="I72" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8105,16 +8105,16 @@
         <v>123</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D73" s="16">
         <v>1</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F73" s="16">
         <v>3</v>
@@ -8126,7 +8126,7 @@
         <v>34.1</v>
       </c>
       <c r="I73" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8134,16 +8134,16 @@
         <v>122</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D74" s="16">
         <v>1</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F74" s="16">
         <v>3</v>
@@ -8155,7 +8155,7 @@
         <v>34.1</v>
       </c>
       <c r="I74" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8163,16 +8163,16 @@
         <v>126</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D75" s="16">
         <v>1</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F75" s="16">
         <v>3</v>
@@ -8184,7 +8184,7 @@
         <v>34.1</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8192,16 +8192,16 @@
         <v>134</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D76" s="16">
         <v>1</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F76" s="16">
         <v>3</v>
@@ -8213,7 +8213,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="I76" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8221,16 +8221,16 @@
         <v>132</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D77" s="16">
         <v>1</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F77" s="16">
         <v>3</v>
@@ -8242,7 +8242,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8250,16 +8250,16 @@
         <v>142</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D78" s="16">
         <v>1</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F78" s="16">
         <v>3</v>
@@ -8271,7 +8271,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="I78" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8279,16 +8279,16 @@
         <v>144</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D79" s="16">
         <v>1</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F79" s="16">
         <v>3</v>
@@ -8300,7 +8300,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="I79" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8308,16 +8308,16 @@
         <v>145</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D80" s="16">
         <v>1</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F80" s="16">
         <v>3</v>
@@ -8329,7 +8329,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="I80" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8337,16 +8337,16 @@
         <v>178</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D81" s="16">
         <v>1</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F81" s="16">
         <v>3</v>
@@ -8358,7 +8358,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="I81" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8366,16 +8366,16 @@
         <v>158</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D82" s="16">
         <v>1</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F82" s="16">
         <v>3</v>
@@ -8387,7 +8387,7 @@
         <v>34.4</v>
       </c>
       <c r="I82" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8395,16 +8395,16 @@
         <v>131</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D83" s="16">
         <v>1</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F83" s="16">
         <v>3</v>
@@ -8416,7 +8416,7 @@
         <v>34.4</v>
       </c>
       <c r="I83" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8424,16 +8424,16 @@
         <v>177</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D84" s="16">
         <v>1</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F84" s="16">
         <v>3</v>
@@ -8445,7 +8445,7 @@
         <v>37.1</v>
       </c>
       <c r="I84" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8453,16 +8453,16 @@
         <v>114</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D85" s="16">
         <v>1</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F85" s="16">
         <v>3</v>
@@ -8474,7 +8474,7 @@
         <v>37.1</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8482,16 +8482,16 @@
         <v>115</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D86" s="16">
         <v>1</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F86" s="16">
         <v>3</v>
@@ -8503,7 +8503,7 @@
         <v>37.1</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8511,16 +8511,16 @@
         <v>117</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D87" s="16">
         <v>1</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F87" s="16">
         <v>3</v>
@@ -8532,7 +8532,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="I87" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8540,16 +8540,16 @@
         <v>118</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D88" s="16">
         <v>1</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F88" s="16">
         <v>3</v>
@@ -8561,7 +8561,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="I88" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8569,16 +8569,16 @@
         <v>119</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D89" s="16">
         <v>1</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F89" s="16">
         <v>3</v>
@@ -8590,7 +8590,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="I89" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8598,16 +8598,16 @@
         <v>121</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D90" s="16">
         <v>1</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F90" s="16">
         <v>3</v>
@@ -8619,7 +8619,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="I90" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8627,16 +8627,16 @@
         <v>120</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D91" s="16">
         <v>1</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F91" s="16">
         <v>3</v>
@@ -8648,7 +8648,7 @@
         <v>37.4</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8656,16 +8656,16 @@
         <v>112</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D92" s="16">
         <v>1</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F92" s="16">
         <v>3</v>
@@ -8677,7 +8677,7 @@
         <v>37.4</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8685,16 +8685,16 @@
         <v>113</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D93" s="16">
         <v>1</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F93" s="16">
         <v>3</v>
@@ -8706,7 +8706,7 @@
         <v>37.4</v>
       </c>
       <c r="I93" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8714,16 +8714,16 @@
         <v>148</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D94" s="16">
         <v>1</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F94" s="16">
         <v>4</v>
@@ -8735,7 +8735,7 @@
         <v>41.1</v>
       </c>
       <c r="I94" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8743,16 +8743,16 @@
         <v>150</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D95" s="16">
         <v>1</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F95" s="16">
         <v>4</v>
@@ -8764,7 +8764,7 @@
         <v>41.1</v>
       </c>
       <c r="I95" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8772,16 +8772,16 @@
         <v>151</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D96" s="16">
         <v>1</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F96" s="16">
         <v>4</v>
@@ -8793,7 +8793,7 @@
         <v>41.1</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8801,16 +8801,16 @@
         <v>157</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D97" s="16">
         <v>1</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F97" s="16">
         <v>4</v>
@@ -8822,7 +8822,7 @@
         <v>41.1</v>
       </c>
       <c r="I97" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8830,16 +8830,16 @@
         <v>156</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D98" s="16">
         <v>1</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F98" s="16">
         <v>4</v>
@@ -8851,7 +8851,7 @@
         <v>41.2</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8859,16 +8859,16 @@
         <v>163</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D99" s="16">
         <v>1</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F99" s="16">
         <v>4</v>
@@ -8880,7 +8880,7 @@
         <v>41.2</v>
       </c>
       <c r="I99" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8888,16 +8888,16 @@
         <v>175</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D100" s="16">
         <v>1</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F100" s="16">
         <v>4</v>
@@ -8909,7 +8909,7 @@
         <v>41.2</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8917,16 +8917,16 @@
         <v>169</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D101" s="16">
         <v>1</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F101" s="16">
         <v>4</v>
@@ -8938,7 +8938,7 @@
         <v>41.2</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8946,16 +8946,16 @@
         <v>176</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D102" s="16">
         <v>1</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F102" s="16">
         <v>4</v>
@@ -8967,7 +8967,7 @@
         <v>41.3</v>
       </c>
       <c r="I102" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -8975,16 +8975,16 @@
         <v>189</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D103" s="16">
         <v>1</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F103" s="16">
         <v>4</v>
@@ -8996,7 +8996,7 @@
         <v>41.3</v>
       </c>
       <c r="I103" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -9004,16 +9004,16 @@
         <v>170</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D104" s="16">
         <v>1</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F104" s="16">
         <v>4</v>
@@ -9025,7 +9025,7 @@
         <v>41.3</v>
       </c>
       <c r="I104" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -9033,16 +9033,16 @@
         <v>202</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D105" s="16">
         <v>1</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F105" s="16">
         <v>4</v>
@@ -9054,7 +9054,7 @@
         <v>47.1</v>
       </c>
       <c r="I105" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -9062,16 +9062,16 @@
         <v>203</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D106" s="16">
         <v>1</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F106" s="16">
         <v>4</v>
@@ -9083,7 +9083,7 @@
         <v>47.1</v>
       </c>
       <c r="I106" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -9091,16 +9091,16 @@
         <v>208</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D107" s="16">
         <v>1</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F107" s="16">
         <v>4</v>
@@ -9112,7 +9112,7 @@
         <v>47.1</v>
       </c>
       <c r="I107" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -9120,16 +9120,16 @@
         <v>209</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D108" s="16">
         <v>1</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F108" s="16">
         <v>4</v>
@@ -9141,7 +9141,7 @@
         <v>47.1</v>
       </c>
       <c r="I108" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -9149,16 +9149,16 @@
         <v>210</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D109" s="16">
         <v>1</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F109" s="16">
         <v>4</v>
@@ -9170,7 +9170,7 @@
         <v>47.1</v>
       </c>
       <c r="I109" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -9178,16 +9178,16 @@
         <v>211</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D110" s="16">
         <v>1</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F110" s="16">
         <v>4</v>
@@ -9199,7 +9199,7 @@
         <v>47.1</v>
       </c>
       <c r="I110" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -9207,16 +9207,16 @@
         <v>207</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D111" s="16">
         <v>1</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F111" s="16">
         <v>4</v>
@@ -9228,7 +9228,7 @@
         <v>47.2</v>
       </c>
       <c r="I111" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -9236,16 +9236,16 @@
         <v>206</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D112" s="16">
         <v>1</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F112" s="16">
         <v>4</v>
@@ -9257,7 +9257,7 @@
         <v>47.2</v>
       </c>
       <c r="I112" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -9265,16 +9265,16 @@
         <v>193</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D113" s="16">
         <v>1</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F113" s="16">
         <v>4</v>
@@ -9283,10 +9283,10 @@
         <v>47</v>
       </c>
       <c r="H113" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I113" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -9294,16 +9294,16 @@
         <v>194</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D114" s="16">
         <v>1</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F114" s="16">
         <v>4</v>
@@ -9312,10 +9312,10 @@
         <v>47</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I114" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -9323,16 +9323,16 @@
         <v>247</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D115" s="16">
         <v>1</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F115" s="16">
         <v>4</v>
@@ -9341,10 +9341,10 @@
         <v>47</v>
       </c>
       <c r="H115" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I115" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -9352,16 +9352,16 @@
         <v>245</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D116" s="16">
         <v>1</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F116" s="16">
         <v>4</v>
@@ -9370,10 +9370,10 @@
         <v>47</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I116" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -9381,16 +9381,16 @@
         <v>204</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D117" s="16">
         <v>1</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F117" s="16">
         <v>4</v>
@@ -9399,10 +9399,10 @@
         <v>47</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I117" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -9410,16 +9410,16 @@
         <v>246</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D118" s="16">
         <v>1</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F118" s="16">
         <v>4</v>
@@ -9428,10 +9428,10 @@
         <v>47</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I118" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -9439,16 +9439,16 @@
         <v>205</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D119" s="16">
         <v>1</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F119" s="16">
         <v>4</v>
@@ -9457,10 +9457,10 @@
         <v>47</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I119" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -9468,16 +9468,16 @@
         <v>244</v>
       </c>
       <c r="B120" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C120" s="16" t="s">
         <v>327</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>328</v>
       </c>
       <c r="D120" s="16">
         <v>1</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F120" s="16">
         <v>4</v>
@@ -9486,10 +9486,10 @@
         <v>47</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I120" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -9497,16 +9497,16 @@
         <v>152</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D121" s="16">
         <v>1</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F121" s="16">
         <v>5</v>
@@ -9518,7 +9518,7 @@
         <v>57.5</v>
       </c>
       <c r="I121" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -9526,16 +9526,16 @@
         <v>159</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D122" s="16">
         <v>1</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F122" s="16">
         <v>5</v>
@@ -9547,7 +9547,7 @@
         <v>57.5</v>
       </c>
       <c r="I122" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -9555,16 +9555,16 @@
         <v>191</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D123" s="16">
         <v>1</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F123" s="16">
         <v>10</v>
@@ -9576,7 +9576,7 @@
         <v>58.4</v>
       </c>
       <c r="I123" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -9584,16 +9584,16 @@
         <v>190</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D124" s="16">
         <v>1</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F124" s="16">
         <v>10</v>
@@ -9605,7 +9605,7 @@
         <v>58.4</v>
       </c>
       <c r="I124" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -9613,16 +9613,16 @@
         <v>192</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D125" s="16">
         <v>1</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F125" s="16">
         <v>10</v>
@@ -9634,7 +9634,7 @@
         <v>58.4</v>
       </c>
       <c r="I125" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -9642,16 +9642,16 @@
         <v>174</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D126" s="16">
         <v>1</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F126" s="16">
         <v>10</v>
@@ -9663,7 +9663,7 @@
         <v>58.4</v>
       </c>
       <c r="I126" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -9671,16 +9671,16 @@
         <v>168</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D127" s="16">
         <v>1</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F127" s="16">
         <v>10</v>
@@ -9692,7 +9692,7 @@
         <v>58.5</v>
       </c>
       <c r="I127" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -9700,16 +9700,16 @@
         <v>173</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D128" s="16">
         <v>1</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F128" s="16">
         <v>10</v>
@@ -9721,7 +9721,7 @@
         <v>58.5</v>
       </c>
       <c r="I128" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -9729,16 +9729,16 @@
         <v>133</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D129" s="16">
         <v>1</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F129" s="16">
         <v>7</v>
@@ -9747,10 +9747,10 @@
         <v>71</v>
       </c>
       <c r="H129" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I129" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -9758,16 +9758,16 @@
         <v>130</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D130" s="16">
         <v>1</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F130" s="16">
         <v>7</v>
@@ -9776,10 +9776,10 @@
         <v>71</v>
       </c>
       <c r="H130" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I130" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -9787,16 +9787,16 @@
         <v>143</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D131" s="16">
         <v>1</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F131" s="16">
         <v>8</v>
@@ -9808,7 +9808,7 @@
         <v>87.1</v>
       </c>
       <c r="I131" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -9816,16 +9816,16 @@
         <v>146</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D132" s="16">
         <v>1</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F132" s="16">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         <v>87.1</v>
       </c>
       <c r="I132" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -9845,16 +9845,16 @@
         <v>149</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D133" s="16">
         <v>1</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F133" s="16">
         <v>8</v>
@@ -9866,7 +9866,7 @@
         <v>87.1</v>
       </c>
       <c r="I133" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -9874,16 +9874,16 @@
         <v>147</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D134" s="16">
         <v>1</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F134" s="16">
         <v>8</v>
@@ -9895,7 +9895,7 @@
         <v>87.1</v>
       </c>
       <c r="I134" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -9903,16 +9903,16 @@
         <v>155</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D135" s="16">
         <v>1</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F135" s="16">
         <v>8</v>
@@ -9924,7 +9924,7 @@
         <v>87.2</v>
       </c>
       <c r="I135" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -9932,16 +9932,16 @@
         <v>154</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D136" s="16">
         <v>1</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F136" s="16">
         <v>8</v>
@@ -9953,7 +9953,7 @@
         <v>87.2</v>
       </c>
       <c r="I136" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -9961,16 +9961,16 @@
         <v>160</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D137" s="16">
         <v>1</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F137" s="16">
         <v>8</v>
@@ -9982,7 +9982,7 @@
         <v>87.2</v>
       </c>
       <c r="I137" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -9990,16 +9990,16 @@
         <v>164</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D138" s="16">
         <v>1</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F138" s="16">
         <v>8</v>
@@ -10011,7 +10011,7 @@
         <v>87.2</v>
       </c>
       <c r="I138" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -10019,16 +10019,16 @@
         <v>162</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D139" s="16">
         <v>1</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F139" s="16">
         <v>8</v>
@@ -10040,7 +10040,7 @@
         <v>87.2</v>
       </c>
       <c r="I139" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -10048,16 +10048,16 @@
         <v>153</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D140" s="16">
         <v>1</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F140" s="16">
         <v>8</v>
@@ -10069,7 +10069,7 @@
         <v>87.2</v>
       </c>
       <c r="I140" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -10077,16 +10077,16 @@
         <v>167</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D141" s="16">
         <v>1</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F141" s="16">
         <v>8</v>
@@ -10098,7 +10098,7 @@
         <v>87.3</v>
       </c>
       <c r="I141" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -10106,16 +10106,16 @@
         <v>166</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D142" s="16">
         <v>1</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F142" s="16">
         <v>8</v>
@@ -10127,7 +10127,7 @@
         <v>87.3</v>
       </c>
       <c r="I142" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -10135,16 +10135,16 @@
         <v>165</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D143" s="16">
         <v>1</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F143" s="16">
         <v>8</v>
@@ -10156,7 +10156,7 @@
         <v>87.3</v>
       </c>
       <c r="I143" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -10184,16 +10184,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -10201,10 +10201,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>570</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>571</v>
       </c>
       <c r="D2" s="34" t="b">
         <v>1</v>
@@ -10215,10 +10215,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>572</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>573</v>
       </c>
       <c r="D3" s="34" t="b">
         <v>1</v>
@@ -10229,10 +10229,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>574</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>575</v>
       </c>
       <c r="D4" s="34" t="b">
         <v>1</v>
@@ -10243,10 +10243,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>576</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>577</v>
       </c>
       <c r="D5" s="34" t="b">
         <v>0</v>
@@ -10257,10 +10257,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>578</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>579</v>
       </c>
       <c r="D6" s="34" t="b">
         <v>0</v>
@@ -10271,10 +10271,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>579</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>580</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>581</v>
       </c>
       <c r="D7" s="34" t="b">
         <v>0</v>
@@ -10285,10 +10285,10 @@
         <v>19</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>582</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>583</v>
       </c>
       <c r="D8" s="34" t="b">
         <v>0</v>
@@ -10317,46 +10317,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>531</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="41.45" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>515</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="55.15" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>518</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="55.15" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>521</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -10387,25 +10387,25 @@
     <row r="4" spans="2:3" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C5" s="22"/>
     </row>
     <row r="6" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="2:3" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C8" s="24"/>
     </row>
@@ -10433,10 +10433,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F1" s="38" t="s">
         <v>2</v>
@@ -10463,22 +10463,22 @@
         <v>6</v>
       </c>
       <c r="K1" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="L1" s="38" t="s">
         <v>594</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>595</v>
       </c>
       <c r="M1" s="38" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="O1" s="38" t="s">
         <v>596</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="P1" s="38" t="s">
         <v>597</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -10502,10 +10502,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>0</v>
@@ -10514,7 +10514,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F1" s="38" t="s">
         <v>2</v>
@@ -10532,22 +10532,22 @@
         <v>6</v>
       </c>
       <c r="K1" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="L1" s="38" t="s">
         <v>594</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>595</v>
       </c>
       <c r="M1" s="38" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="O1" s="38" t="s">
         <v>596</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="P1" s="38" t="s">
         <v>597</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -10571,7 +10571,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>0</v>
@@ -10580,7 +10580,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>2</v>
@@ -10598,10 +10598,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="K1" s="38" t="s">
         <v>594</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>595</v>
       </c>
       <c r="L1" s="38" t="s">
         <v>7</v>
@@ -24603,7 +24603,7 @@
   </sheetPr>
   <dimension ref="A1:M999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -24611,10 +24611,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>0</v>
@@ -24623,7 +24623,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F1" s="38" t="s">
         <v>2</v>
@@ -24641,10 +24641,10 @@
         <v>6</v>
       </c>
       <c r="K1" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="L1" s="38" t="s">
         <v>594</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>595</v>
       </c>
       <c r="M1" s="38" t="s">
         <v>7</v>
@@ -39653,10 +39653,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>0</v>
@@ -39665,7 +39665,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F1" s="38" t="s">
         <v>2</v>
@@ -39683,10 +39683,10 @@
         <v>6</v>
       </c>
       <c r="K1" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="L1" s="38" t="s">
         <v>594</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>595</v>
       </c>
       <c r="M1" s="38" t="s">
         <v>7</v>
@@ -54747,7 +54747,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -54761,7 +54761,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -54775,7 +54775,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -54784,7 +54784,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -54792,7 +54792,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>22</v>
@@ -54801,7 +54801,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -54809,10 +54809,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -54823,10 +54823,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C10" t="s">
         <v>537</v>
-      </c>
-      <c r="C10" t="s">
-        <v>538</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -54968,10 +54968,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C21" t="s">
         <v>493</v>
-      </c>
-      <c r="C21" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -54979,10 +54979,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>494</v>
+      </c>
+      <c r="C22" t="s">
         <v>495</v>
-      </c>
-      <c r="C22" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -54990,10 +54990,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>496</v>
+      </c>
+      <c r="C23" t="s">
         <v>497</v>
-      </c>
-      <c r="C23" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -55001,10 +55001,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>498</v>
+      </c>
+      <c r="C24" t="s">
         <v>499</v>
-      </c>
-      <c r="C24" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -55012,10 +55012,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>538</v>
+      </c>
+      <c r="C25" t="s">
         <v>539</v>
-      </c>
-      <c r="C25" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -55023,10 +55023,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>500</v>
+      </c>
+      <c r="C26" t="s">
         <v>501</v>
-      </c>
-      <c r="C26" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -55034,10 +55034,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>502</v>
+      </c>
+      <c r="C27" t="s">
         <v>503</v>
-      </c>
-      <c r="C27" t="s">
-        <v>504</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -55048,10 +55048,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>504</v>
+      </c>
+      <c r="C28" t="s">
         <v>505</v>
-      </c>
-      <c r="C28" t="s">
-        <v>506</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
@@ -55062,10 +55062,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>506</v>
+      </c>
+      <c r="C29" t="s">
         <v>507</v>
-      </c>
-      <c r="C29" t="s">
-        <v>508</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
@@ -55076,10 +55076,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>508</v>
+      </c>
+      <c r="C30" t="s">
         <v>509</v>
-      </c>
-      <c r="C30" t="s">
-        <v>510</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
@@ -55090,10 +55090,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>540</v>
+      </c>
+      <c r="C31" t="s">
         <v>541</v>
-      </c>
-      <c r="C31" t="s">
-        <v>542</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -55104,10 +55104,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>510</v>
+      </c>
+      <c r="C32" t="s">
         <v>511</v>
-      </c>
-      <c r="C32" t="s">
-        <v>512</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
@@ -55118,10 +55118,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="C33" s="37" t="s">
         <v>589</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -55129,10 +55129,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="C34" s="37" t="s">
         <v>591</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -55157,1593 +55157,1593 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>48</v>
-      </c>
       <c r="C1" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>73</v>
-      </c>
       <c r="C3" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="C9" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="C13" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="C21" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="C26" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="C29" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="C48" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="B89" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="B89" s="16" t="s">
-        <v>551</v>
-      </c>
       <c r="C89" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B113" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B113" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="C113" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B115" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B115" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="C115" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B117" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B117" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="C117" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B123" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B123" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="C123" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B124" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="C124" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B126" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B126" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="C126" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B130" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B130" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="C130" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B135" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B135" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="C135" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -56754,18 +56754,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010065CE7316361DFA48AC876C6112A59FE5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb125599c9f9a751b726b9a94d2e235b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b91c66d6a628c7b1a21e6c64315cfea9" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -56942,6 +56930,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -56952,23 +56952,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97A60C9D-8C24-4385-8428-5CB16A00628A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D6BADC9-44F5-486F-95CB-23D458E6470C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56987,6 +56970,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97A60C9D-8C24-4385-8428-5CB16A00628A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0510A9C-5558-41DA-ACE7-0281B3CA4B88}">
   <ds:schemaRefs>

--- a/data/datacall_template/00template/Eel_Data_Call_2022_Annex6_Landings_Other.xlsx
+++ b/data/datacall_template/00template/Eel_Data_Call_2022_Annex6_Landings_Other.xlsx
@@ -37,7 +37,7 @@
     <definedName name="data">#REF!</definedName>
     <definedName name="metadata">metadata!$B$6:$C$8</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -3482,7 +3482,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{025F268F-1EAE-4E46-B2BE-32ED283D99B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{025F268F-1EAE-4E46-B2BE-32ED283D99B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3652,7 +3652,7 @@
         <xdr:cNvPr id="3" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EE17DD-5027-4E85-A2E6-DF84A29DA2EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75EE17DD-5027-4E85-A2E6-DF84A29DA2EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3743,13 +3743,13 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5928360" cy="5086905"/>
+    <xdr:ext cx="5928360" cy="1470146"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34CE0888-1830-4E34-9AF4-0A9F41197A05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34CE0888-1830-4E34-9AF4-0A9F41197A05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3757,8 +3757,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10582275" y="209550"/>
-          <a:ext cx="5928360" cy="5086905"/>
+          <a:off x="9572625" y="209550"/>
+          <a:ext cx="5928360" cy="1470146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3802,71 +3802,12 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
-            <a:t>(1) Check missing historical data. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>The new_data corresponds to all combinations of possible missing data that we have identified for the past twenty years. </a:t>
+            <a:t>(1)</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>We searched whether any data was entered one year for a given emu, habitat type or lifestage. We also searched whether there might be one entry with an aggegated data attribute (e.g. AL habitat, XX_total for emu, YS for lifestage). When that match did not exist, we generated a line with NP in the database, that is: no data was ever collected for this stage and this habitat, and this was identified as not pertinent (NP), with a comment 'no landings ever recorded in the db'. If a fishery occured sometime in the past, but no data was collected later, we suppose the fishery stopped; the data are marked as NP not pertinent, with the comment 'landings ended in  &lt;year&gt;'.</a:t>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t> Insert new data </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1"/>
-            <a:t>(2) Insert new data : it's already pre-filled</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>In the three last years, data might be missing because it was not completely collected. Then the data is marked as NC (not collected). If you have new data to fill in, you will remove the NC, add the value, change the eel_datasource to dc_202X (202X=the current year). In current year data is generally not collected. You can remove those lines if you have no data.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>So in practise, please check that data marked as NP are correct (use a filter for NP data). Then check for NC data and try to replace with new data by removing the NC attribute, setting a value, and change the datasource to dc_202X. Then screen for current year lines and remove if you have no data yet. And please remember, you have to fill in eel_value OR eel_missvalueqal, never both, always one or the other.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -3993,7 +3934,7 @@
         <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2CF0F56-F27D-4E24-B60A-BFBBC99AB87E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CF0F56-F27D-4E24-B60A-BFBBC99AB87E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4051,7 +3992,7 @@
         <xdr:cNvPr id="4" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F83CAD-7AE8-4C38-A97C-686584DEAD4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66F83CAD-7AE8-4C38-A97C-686584DEAD4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4362,7 +4303,7 @@
         <xdr:cNvPr id="5" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2CF0F56-F27D-4E24-B60A-BFBBC99AB87E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CF0F56-F27D-4E24-B60A-BFBBC99AB87E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4420,7 +4361,7 @@
         <xdr:cNvPr id="4" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CDB661-9B32-43CE-B346-97DF60274CE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28CDB661-9B32-43CE-B346-97DF60274CE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4639,7 +4580,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8481360-D7B7-4684-B72D-838E88CC6EF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8481360-D7B7-4684-B72D-838E88CC6EF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4688,7 +4629,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B3FA15-3307-4783-93AE-183B3DC0E3AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29B3FA15-3307-4783-93AE-183B3DC0E3AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4737,7 +4678,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0793C198-A7A3-433E-885E-E3BA56828DA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0793C198-A7A3-433E-885E-E3BA56828DA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5095,7 +5036,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5109,7 +5050,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10564,7 +10505,7 @@
   <dimension ref="A1:L999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24581,18 +24522,30 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Kg" sqref="B1:B999">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Kg" sqref="B1:B1048576">
       <formula1>0</formula1>
       <formula2>10000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Maximum value 2020" promptTitle="Year" prompt="eg 2016" sqref="A1:A999">
-      <formula1>1900</formula1>
-      <formula2>2021</formula2>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>0</formula1>
+      <formula2>9.99999999999999E+42</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Maximum value 2020" promptTitle="Year" prompt="eg 2016">
+          <x14:formula1>
+            <xm:f>tr_typeseries_ser!$A$33:$A$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -24604,7 +24557,7 @@
   <dimension ref="A1:M999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39622,15 +39575,16 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:K1"/>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Kg" sqref="C1:C999">
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Maximum value 2020" sqref="B1:B1048576">
+      <formula1>1900</formula1>
+      <formula2>2021</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Year" prompt="eg 2016" sqref="C1:C1048576">
       <formula1>0</formula1>
       <formula2>10000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Maximum value 2020" promptTitle="Year" prompt="eg 2016" sqref="B1:B999">
-      <formula1>1900</formula1>
-      <formula2>2021</formula2>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="kg" sqref="D1:D1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -54684,8 +54638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56754,6 +56708,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010065CE7316361DFA48AC876C6112A59FE5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb125599c9f9a751b726b9a94d2e235b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b91c66d6a628c7b1a21e6c64315cfea9" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -56930,18 +56896,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -56952,6 +56906,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97A60C9D-8C24-4385-8428-5CB16A00628A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D6BADC9-44F5-486F-95CB-23D458E6470C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56970,23 +56941,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97A60C9D-8C24-4385-8428-5CB16A00628A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0510A9C-5558-41DA-ACE7-0281B3CA4B88}">
   <ds:schemaRefs>
